--- a/data/scenario_b_simulation.xlsx
+++ b/data/scenario_b_simulation.xlsx
@@ -464,10 +464,10 @@
         <v>781250</v>
       </c>
       <c r="D2" t="n">
-        <v>403.6282869303838</v>
+        <v>403.6282869303837</v>
       </c>
       <c r="E2" t="n">
-        <v>403.6282869303838</v>
+        <v>403.6282869303837</v>
       </c>
       <c r="F2" t="n">
         <v>99218750</v>
@@ -487,7 +487,7 @@
         <v>397.2755747344809</v>
       </c>
       <c r="E3" t="n">
-        <v>800.9038616648646</v>
+        <v>800.9038616648645</v>
       </c>
       <c r="F3" t="n">
         <v>98437500</v>
@@ -507,7 +507,7 @@
         <v>391.178253883912</v>
       </c>
       <c r="E4" t="n">
-        <v>1192.082115548777</v>
+        <v>1192.082115548776</v>
       </c>
       <c r="F4" t="n">
         <v>97656250</v>
@@ -644,10 +644,10 @@
         <v>781250</v>
       </c>
       <c r="D11" t="n">
-        <v>354.4959859886319</v>
+        <v>354.4959859886318</v>
       </c>
       <c r="E11" t="n">
-        <v>3778.112262715339</v>
+        <v>3778.112262715338</v>
       </c>
       <c r="F11" t="n">
         <v>92187500</v>
@@ -664,10 +664,10 @@
         <v>781250</v>
       </c>
       <c r="D12" t="n">
-        <v>349.9772561522836</v>
+        <v>349.9772561522835</v>
       </c>
       <c r="E12" t="n">
-        <v>4128.089518867622</v>
+        <v>4128.089518867621</v>
       </c>
       <c r="F12" t="n">
         <v>91406250</v>
@@ -704,7 +704,7 @@
         <v>781250</v>
       </c>
       <c r="D14" t="n">
-        <v>341.3893756460343</v>
+        <v>341.3893756460342</v>
       </c>
       <c r="E14" t="n">
         <v>4815.089856893319</v>
@@ -724,7 +724,7 @@
         <v>781250</v>
       </c>
       <c r="D15" t="n">
-        <v>337.305285442777</v>
+        <v>337.3052854427771</v>
       </c>
       <c r="E15" t="n">
         <v>5152.395142336097</v>
@@ -924,7 +924,7 @@
         <v>781250</v>
       </c>
       <c r="D25" t="n">
-        <v>302.7362575969259</v>
+        <v>302.7362575969258</v>
       </c>
       <c r="E25" t="n">
         <v>8326.764031266654</v>
@@ -944,7 +944,7 @@
         <v>781250</v>
       </c>
       <c r="D26" t="n">
-        <v>299.8012013647268</v>
+        <v>299.8012013647267</v>
       </c>
       <c r="E26" t="n">
         <v>8626.565232631379</v>
@@ -1104,7 +1104,7 @@
         <v>781250</v>
       </c>
       <c r="D34" t="n">
-        <v>278.9215305010121</v>
+        <v>278.9215305010122</v>
       </c>
       <c r="E34" t="n">
         <v>10928.18074198106</v>
@@ -1384,7 +1384,7 @@
         <v>781250</v>
       </c>
       <c r="D48" t="n">
-        <v>250.7839252787951</v>
+        <v>250.7839252787952</v>
       </c>
       <c r="E48" t="n">
         <v>14611.76250592424</v>
@@ -1604,7 +1604,7 @@
         <v>781250</v>
       </c>
       <c r="D59" t="n">
-        <v>233.8254574240713</v>
+        <v>233.8254574240712</v>
       </c>
       <c r="E59" t="n">
         <v>17265.31615399322</v>
@@ -1624,7 +1624,7 @@
         <v>781250</v>
       </c>
       <c r="D60" t="n">
-        <v>232.4536853251694</v>
+        <v>232.4536853251693</v>
       </c>
       <c r="E60" t="n">
         <v>17497.76983931839</v>
@@ -1684,7 +1684,7 @@
         <v>781250</v>
       </c>
       <c r="D63" t="n">
-        <v>228.485089061821</v>
+        <v>228.4850890618211</v>
       </c>
       <c r="E63" t="n">
         <v>18187.14592135018</v>
@@ -1724,7 +1724,7 @@
         <v>781250</v>
       </c>
       <c r="D65" t="n">
-        <v>225.9550802203872</v>
+        <v>225.9550802203873</v>
       </c>
       <c r="E65" t="n">
         <v>18640.30993050138</v>
@@ -1804,7 +1804,7 @@
         <v>781250</v>
       </c>
       <c r="D69" t="n">
-        <v>221.1512818113861</v>
+        <v>221.1512818113862</v>
       </c>
       <c r="E69" t="n">
         <v>19532.01773001747</v>
@@ -1924,7 +1924,7 @@
         <v>781250</v>
       </c>
       <c r="D75" t="n">
-        <v>214.5232981206307</v>
+        <v>214.5232981206306</v>
       </c>
       <c r="E75" t="n">
         <v>20835.41019592769</v>
@@ -2124,7 +2124,7 @@
         <v>781250</v>
       </c>
       <c r="D85" t="n">
-        <v>204.7847552061434</v>
+        <v>204.7847552061435</v>
       </c>
       <c r="E85" t="n">
         <v>22925.84806022892</v>
@@ -2344,7 +2344,7 @@
         <v>781250</v>
       </c>
       <c r="D96" t="n">
-        <v>195.6063955531603</v>
+        <v>195.6063955531602</v>
       </c>
       <c r="E96" t="n">
         <v>25122.11226798969</v>
@@ -2364,7 +2364,7 @@
         <v>781250</v>
       </c>
       <c r="D97" t="n">
-        <v>194.8396075996953</v>
+        <v>194.8396075996954</v>
       </c>
       <c r="E97" t="n">
         <v>25316.95187558938</v>
@@ -2404,7 +2404,7 @@
         <v>781250</v>
       </c>
       <c r="D99" t="n">
-        <v>193.3366242008091</v>
+        <v>193.336624200809</v>
       </c>
       <c r="E99" t="n">
         <v>25704.37158655189</v>
@@ -2424,7 +2424,7 @@
         <v>781250</v>
       </c>
       <c r="D100" t="n">
-        <v>192.6000167577986</v>
+        <v>192.6000167577987</v>
       </c>
       <c r="E100" t="n">
         <v>25896.97160330969</v>
@@ -2484,7 +2484,7 @@
         <v>781250</v>
       </c>
       <c r="D103" t="n">
-        <v>190.4473747363753</v>
+        <v>190.4473747363754</v>
       </c>
       <c r="E103" t="n">
         <v>26470.44762664107</v>
@@ -2544,7 +2544,7 @@
         <v>781250</v>
       </c>
       <c r="D106" t="n">
-        <v>188.3766212426404</v>
+        <v>188.3766212426403</v>
       </c>
       <c r="E106" t="n">
         <v>27037.63058068098</v>
@@ -2584,7 +2584,7 @@
         <v>781250</v>
       </c>
       <c r="D108" t="n">
-        <v>187.0392907111304</v>
+        <v>187.0392907111305</v>
       </c>
       <c r="E108" t="n">
         <v>27412.37362101362</v>
@@ -2624,7 +2624,7 @@
         <v>781250</v>
       </c>
       <c r="D110" t="n">
-        <v>185.7349756583224</v>
+        <v>185.7349756583223</v>
       </c>
       <c r="E110" t="n">
         <v>27784.49168132664</v>
@@ -2667,7 +2667,7 @@
         <v>184.462445215791</v>
       </c>
       <c r="E112" t="n">
-        <v>28154.04893840448</v>
+        <v>28154.04893840449</v>
       </c>
       <c r="F112" t="n">
         <v>13281250</v>
@@ -2687,7 +2687,7 @@
         <v>183.837731359859</v>
       </c>
       <c r="E113" t="n">
-        <v>28337.88666976434</v>
+        <v>28337.88666976435</v>
       </c>
       <c r="F113" t="n">
         <v>12500000</v>
@@ -2804,10 +2804,10 @@
         <v>781250</v>
       </c>
       <c r="D119" t="n">
-        <v>180.242509594165</v>
+        <v>180.2425095941651</v>
       </c>
       <c r="E119" t="n">
-        <v>29428.20531217285</v>
+        <v>29428.20531217286</v>
       </c>
       <c r="F119" t="n">
         <v>7812500</v>
@@ -2827,7 +2827,7 @@
         <v>179.6676101058005</v>
       </c>
       <c r="E120" t="n">
-        <v>29607.87292227865</v>
+        <v>29607.87292227866</v>
       </c>
       <c r="F120" t="n">
         <v>7031250</v>
@@ -2844,7 +2844,7 @@
         <v>781250</v>
       </c>
       <c r="D121" t="n">
-        <v>179.0993284507416</v>
+        <v>179.0993284507417</v>
       </c>
       <c r="E121" t="n">
         <v>29786.9722507294</v>
@@ -2864,7 +2864,7 @@
         <v>781250</v>
       </c>
       <c r="D122" t="n">
-        <v>178.5375487891851</v>
+        <v>178.537548789185</v>
       </c>
       <c r="E122" t="n">
         <v>29965.50979951858</v>
@@ -2907,7 +2907,7 @@
         <v>177.433045575586</v>
       </c>
       <c r="E124" t="n">
-        <v>30320.92500308902</v>
+        <v>30320.92500308903</v>
       </c>
       <c r="F124" t="n">
         <v>3906250</v>
@@ -2927,7 +2927,7 @@
         <v>176.8901035966302</v>
       </c>
       <c r="E125" t="n">
-        <v>30497.81510668565</v>
+        <v>30497.81510668566</v>
       </c>
       <c r="F125" t="n">
         <v>3125000</v>
@@ -2967,7 +2967,7 @@
         <v>175.8223115666043</v>
       </c>
       <c r="E127" t="n">
-        <v>30849.99064485897</v>
+        <v>30849.99064485898</v>
       </c>
       <c r="F127" t="n">
         <v>1562500</v>
@@ -2984,7 +2984,7 @@
         <v>781250</v>
       </c>
       <c r="D128" t="n">
-        <v>175.2972577801436</v>
+        <v>175.2972577801435</v>
       </c>
       <c r="E128" t="n">
         <v>31025.28790263912</v>
